--- a/WML/test5.xlsx
+++ b/WML/test5.xlsx
@@ -356,10 +356,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="F11:N12"/>
+  <dimension ref="F11:N21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O15" sqref="O15"/>
+      <selection activeCell="F17" sqref="F17:M31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -402,6 +402,16 @@
       <c r="N12">
         <f>SUM(F12:M12)</f>
         <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G19">
+        <v>25413</v>
+      </c>
+    </row>
+    <row r="21" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="I21">
+        <v>1245</v>
       </c>
     </row>
   </sheetData>
